--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Sherin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660BB22F-D03E-4224-A6A2-F78FE7709FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C2B65-C88F-400C-80E3-C5EFAA4E4A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{095B9D67-95EC-4CE6-8CFD-6E31D3F19B8F}"/>
   </bookViews>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -243,15 +243,6 @@
   </si>
   <si>
     <t>Для Завтрака</t>
-  </si>
-  <si>
-    <t>Amiflex-T</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>5+0</t>
   </si>
   <si>
     <t>фывфыв</t>
@@ -1486,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A532062F-46BF-4D35-9A01-8AAC321F8828}">
   <dimension ref="A1:S355"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1583,37 +1574,22 @@
       <c r="D2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="25">
-        <v>65</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>24</v>
-      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="27"/>
-      <c r="M2" s="28">
-        <v>24000</v>
-      </c>
+      <c r="M2" s="28"/>
       <c r="N2" s="29"/>
       <c r="O2" s="30"/>
-      <c r="P2" s="31">
-        <v>10000</v>
-      </c>
-      <c r="Q2" s="32">
-        <f>(M2+N2+O2)/P2</f>
-        <v>2.4</v>
-      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
       <c r="R2" s="33"/>
       <c r="S2" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -9010,11 +8986,11 @@
     </row>
     <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B355" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M355" s="173">
         <f>SUM(M2:M354)</f>
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="N355" s="173">
         <f t="shared" ref="N355:O355" si="0">SUM(N2:N353)</f>
